--- a/dist/document/dest/2020/10/doctors/81.xlsx
+++ b/dist/document/dest/2020/10/doctors/81.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>840000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>145</v>
       </c>
-      <c r="C3" s="1">
-        <v>633650</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>596</v>
       </c>
-      <c r="C4" s="1">
-        <v>1370800</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>56</v>
       </c>
-      <c r="C5" s="1">
-        <v>1280720</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>426</v>
       </c>
-      <c r="C6" s="1">
-        <v>1959600</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>74250</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>75400</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>148</v>
       </c>
-      <c r="C9" s="1">
-        <v>2723200</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
-        <v>1345000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>97</v>
       </c>
-      <c r="C11" s="1">
-        <v>17605500</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>34</v>
       </c>
-      <c r="C12" s="1">
-        <v>7820</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>56</v>
       </c>
-      <c r="C13" s="1">
-        <v>967120</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
-        <v>584000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>1455800</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>196</v>
       </c>
-      <c r="C16" s="1">
-        <v>608580</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>26</v>
       </c>
-      <c r="C17" s="1">
-        <v>1679600</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>471</v>
       </c>
-      <c r="C18" s="1">
-        <v>513390</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>718</v>
       </c>
-      <c r="C19" s="1">
-        <v>775440</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <v>154600</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>95</v>
       </c>
-      <c r="C21" s="1">
-        <v>992750</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>56</v>
       </c>
-      <c r="C22" s="1">
-        <v>212520</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>942</v>
       </c>
-      <c r="C23" s="1">
-        <v>3358230</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>1273</v>
       </c>
-      <c r="C24" s="1">
-        <v>7173355</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1">
-        <v>813000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>324</v>
       </c>
-      <c r="C26" s="1">
-        <v>2245320</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>709</v>
       </c>
-      <c r="C27" s="1">
-        <v>13258300</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>2603</v>
       </c>
-      <c r="C28" s="1">
-        <v>14069215</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>76</v>
       </c>
-      <c r="C29" s="1">
-        <v>367080</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
-        <v>67650</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>266</v>
       </c>
-      <c r="C31" s="1">
-        <v>337820</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>13</v>
       </c>
-      <c r="C32" s="1">
-        <v>150800</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>18</v>
       </c>
-      <c r="C33" s="1">
-        <v>8640000</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>14</v>
       </c>
-      <c r="C34" s="1">
-        <v>520800</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>588</v>
       </c>
-      <c r="C35" s="1">
-        <v>4527600</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>484</v>
       </c>
-      <c r="C36" s="1">
-        <v>1948100</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>1350</v>
       </c>
-      <c r="C37" s="1">
-        <v>5278500</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>294</v>
       </c>
-      <c r="C38" s="1">
-        <v>5174400</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="1">
-        <v>11200</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>2111</v>
       </c>
-      <c r="C40" s="1">
-        <v>39011280</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>42</v>
       </c>
-      <c r="C41" s="1">
-        <v>4620000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>31</v>
       </c>
-      <c r="C42" s="1">
-        <v>3118600</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>130</v>
       </c>
-      <c r="C43" s="1">
-        <v>5005000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>10</v>
       </c>
-      <c r="C44" s="1">
-        <v>143000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>84</v>
       </c>
-      <c r="C45" s="1">
-        <v>1515360</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>228</v>
       </c>
-      <c r="C46" s="1">
-        <v>139080</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="C47" s="1">
-        <v>189000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -911,7 +773,7 @@
         <v>14781</v>
       </c>
       <c r="C48" s="1">
-        <v>157542430</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/81.xlsx
+++ b/dist/document/dest/2020/10/doctors/81.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,383 +402,1621 @@
         <v>Acnes C10 15ml</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1120000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Acyclovir 800mg</v>
+        <v>Acnes C10 15ml</v>
       </c>
       <c r="B3" s="1">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>280000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Acnes C10 15ml</v>
       </c>
       <c r="B4" s="1">
-        <v>596</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>560000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
+        <v>Acyclovir 800mg</v>
       </c>
       <c r="B5" s="1">
-        <v>56</v>
+        <v>220</v>
+      </c>
+      <c r="C5" s="1">
+        <v>961400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Acyclovir 800mg</v>
       </c>
       <c r="B6" s="1">
-        <v>426</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>218500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve">Benzyl Benzoat </v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B7" s="1">
-        <v>9</v>
+        <v>432</v>
+      </c>
+      <c r="C7" s="1">
+        <v>993600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Betadine Anti 10% 30ml</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B9" s="1">
-        <v>148</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="1">
+        <v>128800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Cetaphil 500ML</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="C10" s="1">
+        <v>386400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B11" s="1">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Clorpheniramin 4mg</v>
+        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
       </c>
       <c r="B12" s="1">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>640360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B13" s="1">
         <v>56</v>
       </c>
+      <c r="C13" s="1">
+        <v>257600</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Daivonex Oint 30g (Calcipotriol 50 mcg/g)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>402</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1849200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>128800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Betadine Anti 10% 30ml</v>
       </c>
       <c r="B16" s="1">
-        <v>196</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>37700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
+        <v>Betadine Anti 10% 30ml</v>
       </c>
       <c r="B17" s="1">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>150800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Dochicin (Colchicine 1mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B18" s="1">
-        <v>471</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1140800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Doxycyclin 100mg</v>
+        <v xml:space="preserve">Bông Gòn </v>
       </c>
       <c r="B19" s="1">
-        <v>718</v>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Ellgy H2O</v>
+        <v>Cetaphil 500ML</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>269000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B21" s="1">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3085500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B22" s="1">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>907500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B23" s="1">
-        <v>942</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1633500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Itametazin  5mg(Mequitazine)</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B24" s="1">
-        <v>1273</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9438000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Kem dưỡng da RILASTIL DIFESA STERILE Cream 50ml</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1633500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Lertazin (Levocetirizine 5mg)</v>
+        <v>Clorpheniramin 4mg</v>
       </c>
       <c r="B26" s="1">
-        <v>324</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Clorpheniramin 4mg</v>
       </c>
       <c r="B27" s="1">
-        <v>709</v>
+        <v>45</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10350</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>2603</v>
+        <v>206</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3557620</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
+        <v>725340</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Daivonex Oint 30g (Calcipotriol 50 mcg/g)</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>584000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Daivonex Oint 30g (Calcipotriol 50 mcg/g)</v>
       </c>
       <c r="B31" s="1">
-        <v>266</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>584000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve">Millian </v>
+        <v>Daivonex Oint 30g (Calcipotriol 50 mcg/g)</v>
       </c>
       <c r="B32" s="1">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>292000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Minoxidil 2%</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>451800</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Nizoral Cream 10g (Ketoconazole)</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>50200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Oratane (Isotretinoin 5mg)</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>588</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>100400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>484</v>
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>150600</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Proginale (L-Cystine 500mg)</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>1350</v>
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>100400</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Raxnazole (Itraconazole 100mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>294</v>
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Rhinex Nhỏ mũi</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="C39" s="1">
+        <v>152145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Spulit (Itraconazol 100mg)</v>
+        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
       </c>
       <c r="B40" s="1">
-        <v>2111</v>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>323000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
       </c>
       <c r="B41" s="1">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>193800</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
       </c>
       <c r="B42" s="1">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>323000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Upetal (Fluconazol 150mg)</v>
+        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
       </c>
       <c r="B43" s="1">
-        <v>130</v>
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1227400</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Vaseline pm</v>
+        <v>Dochicin (Colchicine 1mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>10</v>
+        <v>245</v>
+      </c>
+      <c r="C44" s="1">
+        <v>267050</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Dochicin (Colchicine 1mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="C45" s="1">
+        <v>65400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+        <v>Dochicin (Colchicine 1mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>228</v>
+        <v>74</v>
+      </c>
+      <c r="C46" s="1">
+        <v>80660</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Ziaja Natural Olive Ointment</v>
+        <v>Dochicin (Colchicine 1mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15260</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B48" s="1">
+        <v>42</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B49" s="1">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1">
+        <v>110160</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B50" s="1">
+        <v>84</v>
+      </c>
+      <c r="C50" s="1">
+        <v>90720</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B51" s="1">
+        <v>602</v>
+      </c>
+      <c r="C51" s="1">
+        <v>650160</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B52" s="1">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Erylik (Erythomycine, tretinoine)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>120900</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>174</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1818300</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1">
+        <v>313500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Fugaca ( Mebendazole) 500mg</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Fugaca ( Mebendazole) 500mg</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>196</v>
+      </c>
+      <c r="C61" s="1">
+        <v>698740</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>56</v>
+      </c>
+      <c r="C62" s="1">
+        <v>199640</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1">
+        <v>399280</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>414</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1475910</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>223</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1256605</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1">
+        <v>445165</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>144</v>
+      </c>
+      <c r="C67" s="1">
+        <v>811440</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>804</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4530540</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Itametazin  5mg(Mequitazine)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>161</v>
+      </c>
+      <c r="C69" s="1">
+        <v>907235</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Kem dưỡng chống rạn da RILASTIL STRETCH MARK Cream 75ml</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1828000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>58</v>
+      </c>
+      <c r="C71" s="1">
+        <v>401940</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1">
+        <v>415800</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>188</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1302840</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>49</v>
+      </c>
+      <c r="C74" s="1">
+        <v>339570</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>28</v>
+      </c>
+      <c r="C75" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42</v>
+      </c>
+      <c r="C76" s="1">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>404</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7554800</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1">
+        <v>243100</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>28</v>
+      </c>
+      <c r="C79" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>267</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1443135</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>386</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2086330</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1641</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8869605</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>217</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1172885</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>251</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1356655</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>206</v>
+      </c>
+      <c r="C85" s="1">
+        <v>994980</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42</v>
+      </c>
+      <c r="C86" s="1">
+        <v>202860</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1">
+        <v>49610</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>119</v>
+      </c>
+      <c r="C88" s="1">
+        <v>151130</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>30</v>
+      </c>
+      <c r="C89" s="1">
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>65</v>
+      </c>
+      <c r="C90" s="1">
+        <v>82550</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v xml:space="preserve">Millian </v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v xml:space="preserve">Millian </v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v xml:space="preserve">Millian </v>
+      </c>
+      <c r="B93" s="1">
+        <v>13</v>
+      </c>
+      <c r="C93" s="1">
+        <v>150800</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v xml:space="preserve">Millian </v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Minoxidil 2%</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Minoxidil 2%</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Minoxidil 2%</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Minoxidil 2%</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Minoxidil 2%</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Nizoral Cream 10g (Ketoconazole)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Nizoral Cream 10g (Ketoconazole)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>148800</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Nizoral Cream 10g (Ketoconazole)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Nizoral Cream 10g (Ketoconazole)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Oratane (Isotretinoin 5mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>144</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1108800</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Oratane (Isotretinoin 5mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>316</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2433200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Oratane (Isotretinoin 5mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>56</v>
+      </c>
+      <c r="C106" s="1">
+        <v>431200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Oratane (Isotretinoin 5mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>56</v>
+      </c>
+      <c r="C107" s="1">
+        <v>431200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>84</v>
+      </c>
+      <c r="C108" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="1">
+        <v>434700</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Piascledin 300mg (Avocado,soybean unsaponifiable)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>56</v>
+      </c>
+      <c r="C110" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>256</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1000960</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>112</v>
+      </c>
+      <c r="C112" s="1">
+        <v>437920</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>794</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3104540</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>60</v>
+      </c>
+      <c r="C114" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>21</v>
+      </c>
+      <c r="C115" s="1">
+        <v>369600</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>28</v>
+      </c>
+      <c r="C116" s="1">
+        <v>492800</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>144</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2534400</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>207</v>
+      </c>
+      <c r="C120" s="1">
+        <v>3825360</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1205</v>
+      </c>
+      <c r="C121" s="1">
+        <v>22268400</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>210</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3880800</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>183</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3381840</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>195</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3603600</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1540000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>201200</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1">
+        <v>503000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>23</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2313800</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>301800</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1">
+        <v>201200</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>14</v>
+      </c>
+      <c r="C132" s="1">
+        <v>539000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>12</v>
+      </c>
+      <c r="C134" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>48</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1848000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>6</v>
+      </c>
+      <c r="C136" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Vaseline pm</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Vaseline pm</v>
+      </c>
+      <c r="B138" s="1">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1">
+        <v>128700</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Vaseline pm</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>28</v>
+      </c>
+      <c r="C140" s="1">
+        <v>505120</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Vitamin C 500</v>
+      </c>
+      <c r="B141" s="1">
+        <v>10</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>274</v>
+      </c>
+      <c r="C142" s="1">
+        <v>167140</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>84</v>
+      </c>
+      <c r="C143" s="1">
+        <v>51240</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>42</v>
+      </c>
+      <c r="C144" s="1">
+        <v>25620</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>80</v>
+      </c>
+      <c r="C145" s="1">
+        <v>423200</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>56</v>
+      </c>
+      <c r="C146" s="1">
+        <v>296240</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>112</v>
+      </c>
+      <c r="C147" s="1">
+        <v>592480</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B48" s="1">
-        <v>14781</v>
-      </c>
-      <c r="C48" s="1">
-        <v>NaN</v>
+      <c r="B148" s="1">
+        <v>15302</v>
+      </c>
+      <c r="C148" s="1">
+        <v>148965420</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C148"/>
   </ignoredErrors>
 </worksheet>
 </file>